--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value971.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value971.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.137219515740246</v>
+        <v>0.8617596626281738</v>
       </c>
       <c r="B1">
-        <v>1.496114224280078</v>
+        <v>1.208746194839478</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.707288146018982</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>5.116880416870117</v>
       </c>
       <c r="E1">
-        <v>1.12956909968755</v>
+        <v>2.140952587127686</v>
       </c>
     </row>
   </sheetData>
